--- a/biology/Médecine/Test_du_demi-Cooper/Test_du_demi-Cooper.xlsx
+++ b/biology/Médecine/Test_du_demi-Cooper/Test_du_demi-Cooper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test du demi-Cooper est un test de terrain qui permet d'évaluer la VMA d'une personne. Il s'agit de parcourir la plus grande distance possible en 6 minutes.
 </t>
@@ -511,7 +523,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sujet doit courir sur une piste d'athlétisme la plus grande distance possible en 6 minutes ; une fois le test fini, il faut multiplier la distance parcourue par 10 pour obtenir la VMA. Par exemple, si le sujet a parcouru 1 500 mètres, sa VMA est égale à 15 000 m/h soit 15 km/h. Il faut veiller à faire un bon échauffement avant ce test pour éviter les blessures.
 Ce test a l'avantage d'être très précis car il correspond au temps moyen du soutien de la VMA (4 à 8 minutes). Il a toutefois un inconvénient : l'individu ne doit pas partir trop vite pour ne pas tomber en plein dans la filière anaérobie lactique (ce qui le forcerait à abandonner le test par accumulation d'acide lactique au niveau musculaire) et ne doit pas partir trop lentement pour éviter de  fausser les résultats du test.
